--- a/test_data/Angfo.xlsx
+++ b/test_data/Angfo.xlsx
@@ -518,10 +518,13 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
